--- a/xlsx-templates/travel.xlsx
+++ b/xlsx-templates/travel.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4080" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="7820" yWindow="1200" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="差旅费报销单" sheetId="1" r:id="rId1"/>
+    <sheet name="费用报销单" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t xml:space="preserve">     会计                   人资专员                       出差人员签名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -142,6 +143,113 @@
   </si>
   <si>
     <t>差 旅 费 报 销 单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用报销单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">报销部门：                        年      月      日                      单据及附件共 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 页</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金   额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>十</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>千</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合                        计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额大写： 佰  拾  万  仟  佰  拾  元  角  分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原借款：       元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退（补）款： 元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>审（核)批</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务会计：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力行政负责人：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司负责人：</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +290,22 @@
       <b/>
       <u val="double"/>
       <sz val="20"/>
+      <color indexed="8"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="20"/>
+      <color indexed="8"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="仿宋"/>
       <family val="3"/>
@@ -234,7 +358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,35 +368,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="158" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="158" workbookViewId="0">
       <selection activeCell="C15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
@@ -569,675 +717,687 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="11" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="8" t="s">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="6"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="U6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="6"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="6"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="6"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="10"/>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="6"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="6"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="6"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="6"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="10"/>
     </row>
     <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="6"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="6"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="6"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="10"/>
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="6"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="6"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="10"/>
     </row>
     <row r="19" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="6"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="10"/>
     </row>
     <row r="20" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="6"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
       <c r="X21" s="2"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
       <c r="X23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A1:A23"/>
+    <mergeCell ref="B1:B23"/>
+    <mergeCell ref="C1:W2"/>
+    <mergeCell ref="C3:W3"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="N4:V5"/>
+    <mergeCell ref="C21:W23"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="C17:W17"/>
+    <mergeCell ref="C18:W18"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:W20"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="X4:X20"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -1248,29 +1408,297 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="W4:W7"/>
     <mergeCell ref="T6:T7"/>
-    <mergeCell ref="C21:W23"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="C17:W17"/>
-    <mergeCell ref="C18:W18"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:W20"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="K4:M5"/>
-    <mergeCell ref="A1:A23"/>
-    <mergeCell ref="B1:B23"/>
-    <mergeCell ref="C1:W2"/>
-    <mergeCell ref="C3:W3"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="N4:V5"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="512" orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O12"/>
+  <sheetViews>
+    <sheetView zoomScale="159" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="0.6640625" customWidth="1"/>
+    <col min="5" max="13" width="2.33203125" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="15"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="15"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="N3:N8"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.4" right="0.26" top="0.2" bottom="0.15" header="0.2" footer="0.17"/>
+  <pageSetup paperSize="512" orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
+</worksheet>
 </file>
--- a/xlsx-templates/travel.xlsx
+++ b/xlsx-templates/travel.xlsx
@@ -383,43 +383,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="158" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
@@ -717,243 +717,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="15" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="9" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="16"/>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="10"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="16"/>
     </row>
     <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="10"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="16"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -975,11 +975,11 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="10"/>
+      <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1001,11 +1001,11 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="10"/>
+      <c r="X9" s="16"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1027,11 +1027,11 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="10"/>
+      <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1053,11 +1053,11 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="10"/>
+      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1079,11 +1079,11 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="10"/>
+      <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1105,11 +1105,11 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="10"/>
+      <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1131,11 +1131,11 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="10"/>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1157,24 +1157,24 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="10"/>
+      <c r="X15" s="16"/>
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -1185,200 +1185,221 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="10"/>
+      <c r="X16" s="16"/>
     </row>
     <row r="17" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="10"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="16"/>
     </row>
     <row r="18" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="16" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="10"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="16"/>
     </row>
     <row r="19" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="10"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="16"/>
     </row>
     <row r="20" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="10"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="16"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
       <c r="X21" s="2"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
       <c r="X23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="X4:X20"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="C16:J16"/>
     <mergeCell ref="A1:A23"/>
     <mergeCell ref="B1:B23"/>
     <mergeCell ref="C1:W2"/>
@@ -1395,27 +1416,6 @@
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="E19:W20"/>
     <mergeCell ref="U6:U7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="X4:X20"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1442,69 +1442,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="15" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="19"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
@@ -1532,8 +1532,8 @@
       <c r="M4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="19"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -1548,8 +1548,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="19"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
@@ -1564,8 +1564,8 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="19"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -1580,14 +1580,14 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="19"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1598,95 +1598,89 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="19"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="17"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="19" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="O9" s="17"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
     </row>
     <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B4"/>
@@ -1696,6 +1690,12 @@
     <mergeCell ref="N3:N8"/>
     <mergeCell ref="O3:O8"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.4" right="0.26" top="0.2" bottom="0.15" header="0.2" footer="0.17"/>

--- a/xlsx-templates/travel.xlsx
+++ b/xlsx-templates/travel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="1200" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="差旅费报销单" sheetId="1" r:id="rId1"/>
@@ -383,6 +383,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,30 +405,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="A15:XFD15"/>
+      <selection activeCell="C13" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -717,243 +717,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="14" t="s">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="16"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="16"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="16"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -975,11 +975,11 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="16"/>
+      <c r="X8" s="10"/>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1001,11 +1001,11 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="16"/>
+      <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1027,11 +1027,11 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="16"/>
+      <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1053,11 +1053,11 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="16"/>
+      <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1079,22 +1079,24 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="16"/>
+      <c r="X12" s="10"/>
     </row>
     <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1105,289 +1107,220 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="16"/>
-    </row>
-    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="16"/>
-    </row>
-    <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="16"/>
-    </row>
-    <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="16"/>
-    </row>
-    <row r="17" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="15" t="s">
+      <c r="X13" s="10"/>
+    </row>
+    <row r="14" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="16"/>
-    </row>
-    <row r="18" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="15" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="10"/>
+    </row>
+    <row r="15" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="16"/>
-    </row>
-    <row r="19" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="14" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="10"/>
+    </row>
+    <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="10"/>
+    </row>
+    <row r="17" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="10"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="16"/>
-    </row>
-    <row r="20" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="16"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="2"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A1:A20"/>
+    <mergeCell ref="B1:B20"/>
+    <mergeCell ref="C1:W2"/>
+    <mergeCell ref="C3:W3"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="N4:V5"/>
+    <mergeCell ref="C18:W20"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="C14:W14"/>
+    <mergeCell ref="C15:W15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:W17"/>
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="X4:X20"/>
+    <mergeCell ref="X4:X17"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -1399,23 +1332,12 @@
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A1:A23"/>
-    <mergeCell ref="B1:B23"/>
-    <mergeCell ref="C1:W2"/>
-    <mergeCell ref="C3:W3"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="N4:V5"/>
-    <mergeCell ref="C21:W23"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="C17:W17"/>
-    <mergeCell ref="C18:W18"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:W20"/>
-    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1442,69 +1364,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
@@ -1532,8 +1454,8 @@
       <c r="M4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="17"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -1548,8 +1470,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="17"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
@@ -1564,8 +1486,8 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="17"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -1580,14 +1502,14 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="17"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1598,89 +1520,95 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="17"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="17" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="17"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B4"/>
@@ -1690,12 +1618,6 @@
     <mergeCell ref="N3:N8"/>
     <mergeCell ref="O3:O8"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.4" right="0.26" top="0.2" bottom="0.15" header="0.2" footer="0.17"/>

--- a/xlsx-templates/travel.xlsx
+++ b/xlsx-templates/travel.xlsx
@@ -383,43 +383,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="A13:XFD15"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -717,243 +717,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="15" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="9" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="16"/>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="10"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="16"/>
     </row>
     <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="10"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="16"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -975,11 +975,11 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="10"/>
+      <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1001,11 +1001,11 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="10"/>
+      <c r="X9" s="16"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1027,11 +1027,11 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="10"/>
+      <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1053,22 +1053,24 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="10"/>
+      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1079,248 +1081,209 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="10"/>
-    </row>
-    <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="10"/>
-    </row>
-    <row r="14" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="16" t="s">
+      <c r="X12" s="16"/>
+    </row>
+    <row r="13" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="16" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="16"/>
+    </row>
+    <row r="14" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="10"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="16"/>
+    </row>
+    <row r="15" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="16"/>
     </row>
     <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="10"/>
-    </row>
-    <row r="17" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="10"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="16"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
       <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:A20"/>
-    <mergeCell ref="B1:B20"/>
-    <mergeCell ref="C1:W2"/>
-    <mergeCell ref="C3:W3"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="N4:V5"/>
-    <mergeCell ref="C18:W20"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="C14:W14"/>
-    <mergeCell ref="C15:W15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:W17"/>
-    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="X4:X17"/>
+    <mergeCell ref="X4:X16"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -1332,12 +1295,23 @@
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="A1:A19"/>
+    <mergeCell ref="B1:B19"/>
+    <mergeCell ref="C1:W2"/>
+    <mergeCell ref="C3:W3"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="N4:V5"/>
+    <mergeCell ref="C17:W19"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="C13:W13"/>
+    <mergeCell ref="C14:W14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:W16"/>
+    <mergeCell ref="U6:U7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1364,69 +1338,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="15" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="19"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
@@ -1454,8 +1428,8 @@
       <c r="M4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="19"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -1470,8 +1444,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="19"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
@@ -1486,8 +1460,8 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="19"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -1502,14 +1476,14 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="19"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1520,95 +1494,89 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="19"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="17"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="19" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="O9" s="17"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
     </row>
     <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B4"/>
@@ -1618,6 +1586,12 @@
     <mergeCell ref="N3:N8"/>
     <mergeCell ref="O3:O8"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.4" right="0.26" top="0.2" bottom="0.15" header="0.2" footer="0.17"/>

--- a/xlsx-templates/travel.xlsx
+++ b/xlsx-templates/travel.xlsx
@@ -15,6 +15,9 @@
     <sheet name="差旅费报销单" sheetId="1" r:id="rId1"/>
     <sheet name="费用报销单" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">差旅费报销单!$C$1:$W$19</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -383,6 +386,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,30 +408,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,10 +702,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -717,243 +723,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="14" t="s">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="16"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="16"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="16"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -975,11 +981,11 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="16"/>
+      <c r="X8" s="10"/>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1001,11 +1007,11 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="16"/>
+      <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1027,11 +1033,11 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="16"/>
+      <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1053,24 +1059,24 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="16"/>
+      <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1081,205 +1087,216 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="16"/>
+      <c r="X12" s="10"/>
     </row>
     <row r="13" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="16"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="10"/>
     </row>
     <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="16"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
       <c r="X19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A1:A19"/>
+    <mergeCell ref="B1:B19"/>
+    <mergeCell ref="C1:W2"/>
+    <mergeCell ref="C3:W3"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="N4:V5"/>
+    <mergeCell ref="C17:W19"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="C13:W13"/>
+    <mergeCell ref="C14:W14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:W16"/>
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
@@ -1296,26 +1313,16 @@
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="C12:J12"/>
-    <mergeCell ref="A1:A19"/>
-    <mergeCell ref="B1:B19"/>
-    <mergeCell ref="C1:W2"/>
-    <mergeCell ref="C3:W3"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="N4:V5"/>
-    <mergeCell ref="C17:W19"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="C13:W13"/>
-    <mergeCell ref="C14:W14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:W16"/>
-    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="512" orientation="landscape"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="28" scale="90" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1338,69 +1345,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
@@ -1428,8 +1435,8 @@
       <c r="M4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="17"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -1444,8 +1451,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="17"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
@@ -1460,8 +1467,8 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="17"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -1476,14 +1483,14 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="17"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1494,89 +1501,95 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="17"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="17" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="17"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B4"/>
@@ -1586,12 +1599,6 @@
     <mergeCell ref="N3:N8"/>
     <mergeCell ref="O3:O8"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.4" right="0.26" top="0.2" bottom="0.15" header="0.2" footer="0.17"/>

--- a/xlsx-templates/travel.xlsx
+++ b/xlsx-templates/travel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="差旅费报销单" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">差旅费报销单!$C$1:$W$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">费用报销单!$B$1:$O$12</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -707,7 +708,7 @@
   </sheetPr>
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
@@ -1328,10 +1329,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView zoomScale="159" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="B1:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1601,7 +1605,8 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.4" right="0.26" top="0.2" bottom="0.15" header="0.2" footer="0.17"/>
-  <pageSetup paperSize="512" orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.4" right="0.26" top="0.2" bottom="0.15000000000000002" header="0.2" footer="0.17000000000000004"/>
+  <pageSetup paperSize="28" orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
--- a/xlsx-templates/travel.xlsx
+++ b/xlsx-templates/travel.xlsx
@@ -387,43 +387,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,243 +724,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="15" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="9" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="16"/>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="10"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="16"/>
     </row>
     <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="10"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="16"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -982,11 +982,11 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="10"/>
+      <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1008,11 +1008,11 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="10"/>
+      <c r="X9" s="16"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1034,11 +1034,11 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="10"/>
+      <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1060,24 +1060,24 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="10"/>
+      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1088,200 +1088,221 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="10"/>
+      <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="10"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="16" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="10"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="10"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="16"/>
     </row>
     <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="10"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="16"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
       <c r="X19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="X4:X16"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="C12:J12"/>
     <mergeCell ref="A1:A19"/>
     <mergeCell ref="B1:B19"/>
     <mergeCell ref="C1:W2"/>
@@ -1298,27 +1319,6 @@
     <mergeCell ref="C15:D16"/>
     <mergeCell ref="E15:W16"/>
     <mergeCell ref="U6:U7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="X4:X16"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1335,7 +1335,7 @@
   <dimension ref="B1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="B1:O12"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1349,69 +1349,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="15" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="19"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
@@ -1439,8 +1439,8 @@
       <c r="M4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="19"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -1455,8 +1455,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="19"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
@@ -1471,8 +1471,8 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="19"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -1487,14 +1487,14 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="19"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1505,95 +1505,89 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="19"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="17"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="19" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="O9" s="17"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
     </row>
     <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B4"/>
@@ -1603,6 +1597,12 @@
     <mergeCell ref="N3:N8"/>
     <mergeCell ref="O3:O8"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/xlsx-templates/travel.xlsx
+++ b/xlsx-templates/travel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="差旅费报销单" sheetId="1" r:id="rId1"/>
@@ -387,6 +387,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,30 +409,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,8 +708,8 @@
   </sheetPr>
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -718,249 +718,251 @@
     <col min="3" max="8" width="2.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="22" width="4.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="4.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="1" customWidth="1"/>
+    <col min="14" max="22" width="7.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="14" t="s">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="16"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="16"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="16"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -982,11 +984,11 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="16"/>
+      <c r="X8" s="10"/>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1008,11 +1010,11 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="16"/>
+      <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1034,11 +1036,11 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="16"/>
+      <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1060,24 +1062,24 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="16"/>
+      <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1088,205 +1090,216 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="16"/>
+      <c r="X12" s="10"/>
     </row>
     <row r="13" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="16"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="10"/>
     </row>
     <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="16"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
       <c r="X19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A1:A19"/>
+    <mergeCell ref="B1:B19"/>
+    <mergeCell ref="C1:W2"/>
+    <mergeCell ref="C3:W3"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="N4:V5"/>
+    <mergeCell ref="C17:W19"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="C13:W13"/>
+    <mergeCell ref="C14:W14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:W16"/>
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
@@ -1303,27 +1316,16 @@
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="C12:J12"/>
-    <mergeCell ref="A1:A19"/>
-    <mergeCell ref="B1:B19"/>
-    <mergeCell ref="C1:W2"/>
-    <mergeCell ref="C3:W3"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="N4:V5"/>
-    <mergeCell ref="C17:W19"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="C13:W13"/>
-    <mergeCell ref="C14:W14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:W16"/>
-    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="28" scale="90" orientation="landscape"/>
+  <pageSetup paperSize="28" scale="74" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1334,84 +1336,84 @@
   </sheetPr>
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="0.6640625" customWidth="1"/>
+    <col min="4" max="4" width="0.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="13" width="2.33203125" customWidth="1"/>
     <col min="14" max="14" width="6.83203125" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
@@ -1439,8 +1441,8 @@
       <c r="M4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="17"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -1455,8 +1457,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="17"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
@@ -1471,8 +1473,8 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="17"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -1487,14 +1489,14 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="17"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1505,89 +1507,95 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="17"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="17" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="17"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B4"/>
@@ -1597,12 +1605,6 @@
     <mergeCell ref="N3:N8"/>
     <mergeCell ref="O3:O8"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/xlsx-templates/travel.xlsx
+++ b/xlsx-templates/travel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="差旅费报销单" sheetId="1" r:id="rId1"/>
@@ -387,43 +387,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,7 +708,7 @@
   </sheetPr>
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
@@ -724,243 +724,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="15" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="9" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="16"/>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="10"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="16"/>
     </row>
     <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="10"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="16"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -982,11 +982,11 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="10"/>
+      <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1008,11 +1008,11 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="10"/>
+      <c r="X9" s="16"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1034,11 +1034,11 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="10"/>
+      <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1060,24 +1060,24 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="10"/>
+      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1088,200 +1088,221 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="10"/>
+      <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="10"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="16" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="10"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="10"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="16"/>
     </row>
     <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="10"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="16"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
       <c r="X19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="X4:X16"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="C12:J12"/>
     <mergeCell ref="A1:A19"/>
     <mergeCell ref="B1:B19"/>
     <mergeCell ref="C1:W2"/>
@@ -1298,27 +1319,6 @@
     <mergeCell ref="C15:D16"/>
     <mergeCell ref="E15:W16"/>
     <mergeCell ref="U6:U7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="X4:X16"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1334,7 +1334,7 @@
   </sheetPr>
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="B1:O12"/>
     </sheetView>
   </sheetViews>
@@ -1349,69 +1349,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="15" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="19"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
@@ -1439,8 +1439,8 @@
       <c r="M4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="19"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -1455,8 +1455,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="19"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
@@ -1471,8 +1471,8 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="19"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -1487,14 +1487,14 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="19"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1505,95 +1505,89 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="19"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="17"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="19" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="O9" s="17"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
     </row>
     <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B4"/>
@@ -1603,6 +1597,12 @@
     <mergeCell ref="N3:N8"/>
     <mergeCell ref="O3:O8"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/xlsx-templates/travel.xlsx
+++ b/xlsx-templates/travel.xlsx
@@ -387,6 +387,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,30 +409,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,7 +709,7 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -718,249 +718,251 @@
     <col min="3" max="8" width="2.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="22" width="4.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="4.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="1" customWidth="1"/>
+    <col min="14" max="22" width="7.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="14" t="s">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="16"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="16"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="16"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -982,11 +984,11 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="16"/>
+      <c r="X8" s="10"/>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1008,11 +1010,11 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="16"/>
+      <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1034,11 +1036,11 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="16"/>
+      <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1060,24 +1062,24 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="16"/>
+      <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1088,205 +1090,216 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="16"/>
+      <c r="X12" s="10"/>
     </row>
     <row r="13" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="16"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="10"/>
     </row>
     <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="16"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
       <c r="X19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A1:A19"/>
+    <mergeCell ref="B1:B19"/>
+    <mergeCell ref="C1:W2"/>
+    <mergeCell ref="C3:W3"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="N4:V5"/>
+    <mergeCell ref="C17:W19"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="C13:W13"/>
+    <mergeCell ref="C14:W14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:W16"/>
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
@@ -1303,27 +1316,16 @@
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="C12:J12"/>
-    <mergeCell ref="A1:A19"/>
-    <mergeCell ref="B1:B19"/>
-    <mergeCell ref="C1:W2"/>
-    <mergeCell ref="C3:W3"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="N4:V5"/>
-    <mergeCell ref="C17:W19"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="C13:W13"/>
-    <mergeCell ref="C14:W14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:W16"/>
-    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="28" scale="90" orientation="landscape"/>
+  <pageSetup paperSize="28" scale="74" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1335,83 +1337,83 @@
   <dimension ref="B1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="B1:O12"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="0.6640625" customWidth="1"/>
+    <col min="4" max="4" width="0.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="13" width="2.33203125" customWidth="1"/>
     <col min="14" max="14" width="6.83203125" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
@@ -1439,8 +1441,8 @@
       <c r="M4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="17"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -1455,8 +1457,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="17"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
@@ -1471,8 +1473,8 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="17"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -1487,14 +1489,14 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="17"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1505,89 +1507,95 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="17"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="17" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="17"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B4"/>
@@ -1597,12 +1605,6 @@
     <mergeCell ref="N3:N8"/>
     <mergeCell ref="O3:O8"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/xlsx-templates/travel.xlsx
+++ b/xlsx-templates/travel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="差旅费报销单" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t xml:space="preserve">     会计                   人资专员                       出差人员签名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -154,33 +154,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">报销部门：                        年      月      日                      单据及附件共 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 页</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>报销项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -254,6 +227,14 @@
   </si>
   <si>
     <t>公司负责人：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据及附件共       页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">报销部门：                       </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,14 +288,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -324,7 +297,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -356,13 +329,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,44 +369,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,7 +693,7 @@
   </sheetPr>
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
@@ -726,243 +711,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="15" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="9" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="16"/>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="10"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="16"/>
     </row>
     <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="10"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="16"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -984,11 +969,11 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="10"/>
+      <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1010,11 +995,11 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="10"/>
+      <c r="X9" s="16"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1036,11 +1021,11 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="10"/>
+      <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1062,24 +1047,24 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="10"/>
+      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1090,200 +1075,221 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="10"/>
+      <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="10"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="16" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="10"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="10"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="16"/>
     </row>
     <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="10"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="16"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
       <c r="X19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="X4:X16"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="C12:J12"/>
     <mergeCell ref="A1:A19"/>
     <mergeCell ref="B1:B19"/>
     <mergeCell ref="C1:W2"/>
@@ -1300,27 +1306,6 @@
     <mergeCell ref="C15:D16"/>
     <mergeCell ref="E15:W16"/>
     <mergeCell ref="U6:U7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="X4:X16"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1336,8 +1321,8 @@
   </sheetPr>
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1351,98 +1336,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+    </row>
+    <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="15" t="s">
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="19"/>
-    </row>
-    <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="19"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -1457,8 +1444,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="19"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
@@ -1473,8 +1460,8 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="19"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -1489,14 +1476,14 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="19"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="8"/>
+      <c r="B8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="12"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1507,97 +1494,90 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="19"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="17"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="19" t="s">
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="19"/>
-    </row>
-    <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="20" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="13"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="19" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
+  <mergeCells count="16">
     <mergeCell ref="B1:O1"/>
-    <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
@@ -1605,6 +1585,14 @@
     <mergeCell ref="N3:N8"/>
     <mergeCell ref="O3:O8"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/xlsx-templates/travel.xlsx
+++ b/xlsx-templates/travel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="差旅费报销单" sheetId="1" r:id="rId1"/>
@@ -369,6 +369,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,34 +394,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,15 +693,15 @@
   </sheetPr>
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="2.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="3.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="12" width="4.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.33203125" style="1" customWidth="1"/>
@@ -711,243 +711,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="14" t="s">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="16"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="16"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="11"/>
     </row>
     <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="16"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -969,11 +969,11 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="16"/>
+      <c r="X8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -995,11 +995,11 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="16"/>
+      <c r="X9" s="11"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1021,11 +1021,11 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="16"/>
+      <c r="X10" s="11"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1047,24 +1047,24 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="16"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1075,205 +1075,216 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="16"/>
+      <c r="X12" s="11"/>
     </row>
     <row r="13" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="11"/>
     </row>
     <row r="14" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="11"/>
     </row>
     <row r="15" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="16"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="11"/>
     </row>
     <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="16"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="11"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
       <c r="X19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A1:A19"/>
+    <mergeCell ref="B1:B19"/>
+    <mergeCell ref="C1:W2"/>
+    <mergeCell ref="C3:W3"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="N4:V5"/>
+    <mergeCell ref="C17:W19"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="C13:W13"/>
+    <mergeCell ref="C14:W14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:W16"/>
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
@@ -1290,27 +1301,16 @@
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="C12:J12"/>
-    <mergeCell ref="A1:A19"/>
-    <mergeCell ref="B1:B19"/>
-    <mergeCell ref="C1:W2"/>
-    <mergeCell ref="C3:W3"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="N4:V5"/>
-    <mergeCell ref="C17:W19"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="C13:W13"/>
-    <mergeCell ref="C14:W14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:W16"/>
-    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="28" scale="74" orientation="landscape"/>
+  <pageSetup paperSize="28" scale="71" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1321,7 +1321,7 @@
   </sheetPr>
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:K2"/>
     </sheetView>
   </sheetViews>
@@ -1336,71 +1336,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="6" t="s">
         <v>34</v>
       </c>
@@ -1428,8 +1428,8 @@
       <c r="M4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="17"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -1444,8 +1444,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="17"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
@@ -1460,8 +1460,8 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="17"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -1476,14 +1476,14 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="17"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1494,89 +1494,95 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="17" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="17"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
     </row>
     <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -1587,12 +1593,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/xlsx-templates/travel.xlsx
+++ b/xlsx-templates/travel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="差旅费报销单" sheetId="1" r:id="rId1"/>
@@ -369,6 +369,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,34 +394,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,15 +693,14 @@
   </sheetPr>
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="2.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="4.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="12" width="4.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.33203125" style="1" customWidth="1"/>
@@ -711,243 +710,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="14" t="s">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="16"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="16"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="11"/>
     </row>
     <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="16"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -969,11 +968,11 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="16"/>
+      <c r="X8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -995,11 +994,11 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="16"/>
+      <c r="X9" s="11"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1021,11 +1020,11 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="16"/>
+      <c r="X10" s="11"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1047,24 +1046,24 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="16"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1075,205 +1074,216 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="16"/>
+      <c r="X12" s="11"/>
     </row>
     <row r="13" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="11"/>
     </row>
     <row r="14" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="11"/>
     </row>
     <row r="15" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="16"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="11"/>
     </row>
     <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="16"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="11"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
       <c r="X19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A1:A19"/>
+    <mergeCell ref="B1:B19"/>
+    <mergeCell ref="C1:W2"/>
+    <mergeCell ref="C3:W3"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="N4:V5"/>
+    <mergeCell ref="C17:W19"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="C13:W13"/>
+    <mergeCell ref="C14:W14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:W16"/>
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
@@ -1290,27 +1300,16 @@
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="C12:J12"/>
-    <mergeCell ref="A1:A19"/>
-    <mergeCell ref="B1:B19"/>
-    <mergeCell ref="C1:W2"/>
-    <mergeCell ref="C3:W3"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="N4:V5"/>
-    <mergeCell ref="C17:W19"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="C13:W13"/>
-    <mergeCell ref="C14:W14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:W16"/>
-    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="28" scale="74" orientation="landscape"/>
+  <pageSetup paperSize="28" scale="69" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1321,7 +1320,7 @@
   </sheetPr>
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:K2"/>
     </sheetView>
   </sheetViews>
@@ -1336,71 +1335,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="6" t="s">
         <v>34</v>
       </c>
@@ -1428,8 +1427,8 @@
       <c r="M4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="17"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -1444,8 +1443,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="17"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
@@ -1460,8 +1459,8 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="17"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -1476,14 +1475,14 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="17"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1494,89 +1493,95 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="17" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="17"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
     </row>
     <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -1587,12 +1592,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
